--- a/LCC/Java/程式設計練習題庫.xlsx
+++ b/LCC/Java/程式設計練習題庫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="程式設計入門" sheetId="1" r:id="rId1"/>
@@ -412,12 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Land class
-sruare class
-circle class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>area() virtual
 w,h, overriding area()
 center, r overriding area()      談多形</t>
@@ -689,6 +683,12 @@
   </si>
   <si>
     <t>long diff = d1.getTime() - d2.getTime();</t>
+  </si>
+  <si>
+    <t>Land class
+square class
+circle class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -849,63 +849,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1263,19 +1263,19 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1331,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1340,14 +1340,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1367,7 +1367,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1387,7 +1387,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="12" t="s">
         <v>30</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1449,71 +1449,71 @@
         <v>52</v>
       </c>
       <c r="D24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="B25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="2" t="s">
+      <c r="D26" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
         <v>145</v>
       </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" t="s">
         <v>150</v>
       </c>
-      <c r="D28" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1522,35 +1522,35 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="2" t="s">
         <v>54</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -1591,50 +1591,50 @@
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>123</v>
+      <c r="A42" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    <row r="46" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1643,193 +1643,193 @@
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="1" t="s">
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-    </row>
-    <row r="50" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C50" s="1"/>
-      <c r="J50" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
+      <c r="J50" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C52" s="1"/>
-      <c r="J52" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
+      <c r="J52" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="J53" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
+      <c r="J53" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="J54" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
+      <c r="J54" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" t="s">
         <v>157</v>
       </c>
-      <c r="D55" t="s">
-        <v>158</v>
-      </c>
-      <c r="J55" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
+      <c r="J55" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="J56" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
+      <c r="J56" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="J57" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
+      <c r="J57" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="J58" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
+      <c r="J58" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="J59" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
+      <c r="J59" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
@@ -1910,14 +1910,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
@@ -1935,14 +1935,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1951,51 +1951,51 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2004,14 +2004,14 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>78</v>
       </c>
@@ -2023,79 +2023,79 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
     </row>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2148,8 +2148,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>99</v>
+      <c r="A2" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
@@ -2177,8 +2177,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>100</v>
+      <c r="A5" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>91</v>
@@ -2188,7 +2188,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>95</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="10" t="s">
         <v>93</v>
       </c>
@@ -2208,10 +2208,10 @@
     <row r="8" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2241,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2252,7 +2252,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
@@ -2261,14 +2261,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
@@ -2286,81 +2286,81 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
